--- a/data_excel/426.xlsx
+++ b/data_excel/426.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kokoronight\Desktop\前400題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>老師</t>
   </si>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>特點</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -504,7 +508,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -698,7 +702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -709,15 +713,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
+      <c r="C17" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">

--- a/data_excel/426.xlsx
+++ b/data_excel/426.xlsx
@@ -123,9 +123,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -134,6 +131,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +163,13 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,9 +208,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -508,7 +517,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -666,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -717,16 +726,16 @@
       <c r="A17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
-        <v>34</v>
+      <c r="B17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
